--- a/table.xlsx
+++ b/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Documents\estudos\MangaList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81A3CFC8-E2DC-497E-9D25-EECFB2F23FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA4910B-DF03-48BC-AC35-7541FA3433A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-5640" windowWidth="16440" windowHeight="28440" xr2:uid="{93238197-876A-4126-A11A-F73245AC4A1D}"/>
   </bookViews>
@@ -796,7 +796,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -827,7 +827,7 @@
         <v>73</v>
       </c>
       <c r="B2">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>39</v>
@@ -853,7 +853,7 @@
             &lt;div class='cap'&gt;
                 &lt;p&gt;
                     &lt;button class='btn'&gt; &amp;darr; &lt;/button&gt;
-                        &lt;input type='number' class='ncap' name='1' id='i1' value='68' maxlength='5' size='5'&gt; 
+                        &lt;input type='number' class='ncap' name='1' id='i1' value='136' maxlength='5' size='5'&gt; 
                     &lt;button class='btn'&gt; &amp;uarr; &lt;/button&gt;
                 &lt;/p&gt;
             &lt;/div&gt;
@@ -1920,7 +1920,7 @@
             &lt;div class='cap'&gt;
                 &lt;p&gt;
                     &lt;button class='btn'&gt; &amp;darr; &lt;/button&gt;
-                        &lt;input type='number' class='ncap' name='1' id='i1' value='68' maxlength='5' size='5'&gt; 
+                        &lt;input type='number' class='ncap' name='1' id='i1' value='136' maxlength='5' size='5'&gt; 
                     &lt;button class='btn'&gt; &amp;uarr; &lt;/button&gt;
                 &lt;/p&gt;
             &lt;/div&gt;
